--- a/Excel/TaskConfig@cs.xlsx
+++ b/Excel/TaskConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>c</t>
   </si>
@@ -100,13 +100,19 @@
     <t>冒险1</t>
   </si>
   <si>
-    <t>通关冒险</t>
+    <t>通关冒险1次</t>
   </si>
   <si>
     <t>冒险2</t>
   </si>
   <si>
+    <t>通关冒险3次</t>
+  </si>
+  <si>
     <t>冒险3</t>
+  </si>
+  <si>
+    <t>通关冒险5次</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:J16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1397,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1417,19 +1423,19 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1">
         <v>400</v>
@@ -1440,22 +1446,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1">
         <v>800</v>

--- a/Excel/TaskConfig@cs.xlsx
+++ b/Excel/TaskConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>c</t>
   </si>
@@ -70,28 +70,46 @@
     <t>string</t>
   </si>
   <si>
-    <t>升级</t>
+    <t>升级1</t>
   </si>
   <si>
     <t>升到2级</t>
   </si>
   <si>
-    <t>升到3级</t>
-  </si>
-  <si>
-    <t>升到4级</t>
+    <t>升级2</t>
   </si>
   <si>
     <t>升到5级</t>
   </si>
   <si>
-    <t>升到6级</t>
-  </si>
-  <si>
-    <t>升到7级</t>
-  </si>
-  <si>
-    <t>升到8级</t>
+    <t>升级3</t>
+  </si>
+  <si>
+    <t>升到10级</t>
+  </si>
+  <si>
+    <t>升级4</t>
+  </si>
+  <si>
+    <t>升到15级</t>
+  </si>
+  <si>
+    <t>升级5</t>
+  </si>
+  <si>
+    <t>升到20级</t>
+  </si>
+  <si>
+    <t>升级6</t>
+  </si>
+  <si>
+    <t>升到30级</t>
+  </si>
+  <si>
+    <t>升级7</t>
+  </si>
+  <si>
+    <t>升到50级</t>
   </si>
   <si>
     <t>#</t>
@@ -1102,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1233,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1245,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:10">
@@ -1259,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1271,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:10">
@@ -1285,10 +1303,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1297,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:10">
@@ -1311,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1323,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
       <c r="J10" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:10">
@@ -1337,10 +1355,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1349,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>5</v>
       </c>
       <c r="J11" s="1">
-        <v>600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="3:10">
@@ -1363,10 +1381,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1375,29 +1393,32 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>6</v>
       </c>
       <c r="J12" s="1">
-        <v>700</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -1415,15 +1436,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="2:10">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="1">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -1441,15 +1465,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="2:10">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -1509,7 +1536,7 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
